--- a/code/latest/terms.xlsx
+++ b/code/latest/terms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/research/script_not_in_dropbox/srpAnalytics/analysis/latest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/research/script_not_in_dropbox/srpAnalytics/code/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B22A8-DFE6-074D-89F7-356EBAD5E97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4939643-F6D1-7B42-9754-0731B43442A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="460" windowWidth="15140" windowHeight="12920" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="21940" windowHeight="12920" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +309,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -353,7 +370,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +693,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,15 +1006,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>72</v>
       </c>
     </row>

--- a/code/latest/terms.xlsx
+++ b/code/latest/terms.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/research/script_not_in_dropbox/srpAnalytics/code/latest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/research/projects/Katrina/srpAnalytics/code/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4939643-F6D1-7B42-9754-0731B43442A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9EA4BF-05E4-054A-9AC5-93A9EA1F5897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="460" windowWidth="21940" windowHeight="12920" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
+    <workbookView xWindow="7660" yWindow="2720" windowWidth="21940" windowHeight="12920" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>term</t>
   </si>
@@ -256,13 +256,37 @@
   </si>
   <si>
     <t>no longer used (uses NC__ instead)</t>
+  </si>
+  <si>
+    <t>ANY24</t>
+  </si>
+  <si>
+    <t>Any effect 24h</t>
+  </si>
+  <si>
+    <t>1 if any one of these 'MO24','DP24','SM24','NC24' is 1 (otherwise ANY24=0)</t>
+  </si>
+  <si>
+    <t>Total mortality</t>
+  </si>
+  <si>
+    <t>ANY120</t>
+  </si>
+  <si>
+    <t>Any effect within 5 days (this is NOT an effect AT 5 days, therefore, ANY120 includes both 120 hrs endpoints and ANY24)</t>
+  </si>
+  <si>
+    <t>Superendpoints</t>
+  </si>
+  <si>
+    <t>"final" endpoints since they supercedes old endpoints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +350,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -376,6 +407,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6628B642-8DBE-B143-BB83-8906A12E6441}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,316 +770,347 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B9" s="5">
         <v>-1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D31" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-      <sortCondition ref="A1:A31"/>
+  <autoFilter ref="A1:D34" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+      <sortCondition ref="A1:A34"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/latest/terms.xlsx
+++ b/code/latest/terms.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimd999/research/projects/Katrina/srpAnalytics/code/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9EA4BF-05E4-054A-9AC5-93A9EA1F5897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC8A7B-E290-024B-90C9-714F595E437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2720" windowWidth="21940" windowHeight="12920" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
+    <workbookView xWindow="100" yWindow="3200" windowWidth="20060" windowHeight="13480" xr2:uid="{F882FDEF-851F-DC4A-B978-FE9B8FD86AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>term</t>
   </si>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>"final" endpoints since they supercedes old endpoints</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>effective concentration</t>
+  </si>
+  <si>
+    <t>PFAS</t>
+  </si>
+  <si>
+    <t>Per- and Polyfluoroalkyl Substances</t>
+  </si>
+  <si>
+    <t>Benchmark Concentration?</t>
   </si>
 </sst>
 </file>
@@ -723,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6628B642-8DBE-B143-BB83-8906A12E6441}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,300 +835,325 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <v>-1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
-      <sortCondition ref="A1:A34"/>
+  <autoFilter ref="A1:D37" xr:uid="{653FA9A4-0C92-5449-9984-ED304975102D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
